--- a/得分表.xlsx
+++ b/得分表.xlsx
@@ -7,19 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="对局记录" sheetId="1" r:id="rId1"/>
-    <sheet name="平均得分" sheetId="2" r:id="rId2"/>
+    <sheet name="对局胜率" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Group11</t>
   </si>
   <si>
+    <t>Group10</t>
+  </si>
+  <si>
     <t>Agent17</t>
   </si>
   <si>
@@ -32,10 +34,112 @@
     <t>Agent18</t>
   </si>
   <si>
-    <t>组名</t>
-  </si>
-  <si>
-    <t>平均得分</t>
+    <t>52.52</t>
+  </si>
+  <si>
+    <t>52.37</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>52.79</t>
+  </si>
+  <si>
+    <t>53.50</t>
+  </si>
+  <si>
+    <t>54.33</t>
+  </si>
+  <si>
+    <t>47.63</t>
+  </si>
+  <si>
+    <t>52.29</t>
+  </si>
+  <si>
+    <t>52.70</t>
+  </si>
+  <si>
+    <t>52.92</t>
+  </si>
+  <si>
+    <t>53.66</t>
+  </si>
+  <si>
+    <t>54.62</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>52.83</t>
+  </si>
+  <si>
+    <t>53.75</t>
+  </si>
+  <si>
+    <t>54.45</t>
+  </si>
+  <si>
+    <t>52.76</t>
+  </si>
+  <si>
+    <t>47.21</t>
+  </si>
+  <si>
+    <t>47.08</t>
+  </si>
+  <si>
+    <t>46.25</t>
+  </si>
+  <si>
+    <t>52.88</t>
+  </si>
+  <si>
+    <t>54.74</t>
+  </si>
+  <si>
+    <t>52.57</t>
+  </si>
+  <si>
+    <t>46.50</t>
+  </si>
+  <si>
+    <t>46.34</t>
+  </si>
+  <si>
+    <t>45.55</t>
+  </si>
+  <si>
+    <t>45.26</t>
+  </si>
+  <si>
+    <t>53.13</t>
+  </si>
+  <si>
+    <t>52.16</t>
+  </si>
+  <si>
+    <t>45.67</t>
+  </si>
+  <si>
+    <t>45.38</t>
+  </si>
+  <si>
+    <t>47.24</t>
+  </si>
+  <si>
+    <t>47.43</t>
+  </si>
+  <si>
+    <t>47.84</t>
+  </si>
+  <si>
+    <t>52.64</t>
   </si>
 </sst>
 </file>
@@ -367,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -389,166 +493,146 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>-24</v>
-      </c>
-      <c r="C2">
-        <v>695</v>
-      </c>
-      <c r="D2">
-        <v>953</v>
-      </c>
-      <c r="E2">
-        <v>1536</v>
-      </c>
-      <c r="F2">
-        <v>4057</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-695</v>
-      </c>
-      <c r="C3">
-        <v>-10</v>
-      </c>
-      <c r="D3">
-        <v>2073</v>
-      </c>
-      <c r="E3">
-        <v>4204</v>
-      </c>
-      <c r="F3">
-        <v>541</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>-953</v>
-      </c>
-      <c r="C4">
-        <v>-2073</v>
-      </c>
-      <c r="D4">
-        <v>-128</v>
-      </c>
-      <c r="E4">
-        <v>3991</v>
-      </c>
-      <c r="F4">
-        <v>393</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>-1536</v>
-      </c>
-      <c r="C5">
-        <v>-4204</v>
-      </c>
-      <c r="D5">
-        <v>-3991</v>
-      </c>
-      <c r="E5">
-        <v>161</v>
-      </c>
-      <c r="F5">
-        <v>673</v>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-4057</v>
-      </c>
-      <c r="C6">
-        <v>-541</v>
-      </c>
-      <c r="D6">
-        <v>-393</v>
-      </c>
-      <c r="E6">
-        <v>-673</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1443.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1222.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-1779.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-1130.6</v>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
